--- a/MHTCDashboard/TestUnifiedFile.xlsx
+++ b/MHTCDashboard/TestUnifiedFile.xlsx
@@ -4,36 +4,37 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18330" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>massachusetts</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
     <t>testing metric name</t>
   </si>
   <si>
     <t>Testing Category Name</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -374,7 +375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -384,23 +387,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>9090</v>
@@ -411,7 +414,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>9090</v>

--- a/MHTCDashboard/TestUnifiedFile.xlsx
+++ b/MHTCDashboard/TestUnifiedFile.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -376,7 +375,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9090</v>
+        <v>1920</v>
       </c>
       <c r="C3">
         <v>11111</v>
@@ -417,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>9090</v>
+        <v>1920</v>
       </c>
       <c r="C4">
         <v>22222</v>

--- a/MHTCDashboard/TestUnifiedFile.xlsx
+++ b/MHTCDashboard/TestUnifiedFile.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Fortier\Documents\mqp\MHTCDashboard\MHTCDashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="18330" windowHeight="6075"/>
   </bookViews>
@@ -16,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>testing metric name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Testing Category Name</t>
   </si>
@@ -34,6 +36,12 @@
   </si>
   <si>
     <t>Texas</t>
+  </si>
+  <si>
+    <t>testmetrica</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -81,6 +89,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -128,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,18 +397,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -405,20 +416,42 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1920</v>
+        <v>1983</v>
       </c>
       <c r="C3">
-        <v>11111</v>
+        <v>44444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
+        <v>1903</v>
+      </c>
+      <c r="C4">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>1920</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1920</v>
+      </c>
+      <c r="C6">
         <v>22222</v>
       </c>
     </row>
